--- a/data/literature.xlsx
+++ b/data/literature.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2445,12 +2445,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>@tingley_cryptic_2013</t>
+          <t>@jarzyna_near_2017</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>pDiv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2460,15 +2460,18 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Regional</t>
-        </is>
+          <t>9834000</t>
+        </is>
+      </c>
+      <c r="E45">
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1911-2009</t>
+          <t>1969-2010</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2478,19 +2481,19 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Tingley and Beissinger 2013</t>
+          <t>Jarzyna and Jetz 2017</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>@la_sorte_disparities_2009</t>
+          <t>@tingley_cryptic_2013</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2505,18 +2508,15 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>9834000</t>
-        </is>
-      </c>
-      <c r="E46">
-        <v>1</v>
+          <t>Regional</t>
+        </is>
       </c>
       <c r="G46">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1975-2001</t>
+          <t>1911-2009</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2526,19 +2526,19 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>La Sorte et al. 2009</t>
+          <t>Tingley and Beissinger 2013</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>@la_sorte_geographical_2006</t>
+          <t>@la_sorte_disparities_2009</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2560,16 +2560,16 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1968-2003</t>
+          <t>1975-2001</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>USA, Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2579,14 +2579,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>La Sorte 2006</t>
+          <t>La Sorte et al. 2009</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>@ma_use_2012</t>
+          <t>@la_sorte_geographical_2006</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2601,23 +2601,23 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>125384</t>
+          <t>9834000</t>
         </is>
       </c>
       <c r="E48">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1980-2005</t>
+          <t>1968-2003</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>USA, Canada</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2627,14 +2627,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Ma et al. 2012</t>
+          <t>La Sorte 2006</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>@dornelas_assemblage_2014</t>
+          <t>@ma_use_2012</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2649,30 +2649,33 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>148940000</t>
-        </is>
+          <t>125384</t>
+        </is>
+      </c>
+      <c r="E49">
+        <v>20</v>
       </c>
       <c r="G49">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1960-2000</t>
+          <t>1980-2005</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Dornelas et al. 2014</t>
+          <t>Ma et al. 2012</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2687,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2712,7 +2715,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2724,12 +2727,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>@garcia-navas_temporal_2020</t>
+          <t>@dornelas_assemblage_2014</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>sBetaDiv</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2739,45 +2742,42 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>267</t>
-        </is>
-      </c>
-      <c r="E51">
-        <v>1</v>
+          <t>148940000</t>
+        </is>
       </c>
       <c r="G51">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1999-2018</t>
+          <t>1960-2000</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>World</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>García-Navas et al. 2020</t>
+          <t>Dornelas et al. 2014</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>@blowes_geography_2019</t>
+          <t>@garcia-navas_temporal_2020</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>sBetaDiv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2787,33 +2787,33 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>267</t>
         </is>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="G52">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1980-2019</t>
+          <t>1999-2018</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Polar realm</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Blowes et al. 2019</t>
+          <t>García-Navas et al. 2020</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Temperate realm</t>
+          <t>Polar realm</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Polar realm</t>
+          <t>Temperate realm</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Temperate realm</t>
+          <t>Polar realm</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -2964,48 +2964,48 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>@mcgill_fifteen_2015</t>
+          <t>@blowes_geography_2019</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>9834000</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1985-2005</t>
+          <t>1980-2019</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>USA, Canada</t>
+          <t>Temperate realm</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>McGill et al. 2015</t>
+          <t>Blowes et al. 2019</t>
         </is>
       </c>
     </row>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3054,6 +3054,150 @@
       <c r="K57" t="inlineStr">
         <is>
           <t>McGill et al. 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>@mcgill_fifteen_2015</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>sR</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9834000</t>
+        </is>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>20</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>1985-2005</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>USA, Canada</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>McGill et al. 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>@petchey_low_2007</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>sR</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>229800</t>
+        </is>
+      </c>
+      <c r="E59">
+        <v>20</v>
+      </c>
+      <c r="G59">
+        <v>24</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>1968-1991</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Petchey et al. 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>@petchey_low_2007</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>fDiv</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>229800</t>
+        </is>
+      </c>
+      <c r="E60">
+        <v>20</v>
+      </c>
+      <c r="G60">
+        <v>24</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>1968-1991</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Petchey et al. 2007</t>
         </is>
       </c>
     </row>

--- a/data/literature.xlsx
+++ b/data/literature.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,7 +458,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Barnagaud et al. 2017</t>
+          <t>Barnagaud et al., 2017</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Barnagaud et al. 2017</t>
+          <t>Barnagaud et al., 2017</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Barnagaud et al. 2017</t>
+          <t>Barnagaud et al., 2017</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Barnagaud et al. 2017</t>
+          <t>Barnagaud et al., 2017</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Chase et al. 2019</t>
+          <t>Chase et al., 2019</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Chase et al. 2019</t>
+          <t>Chase et al., 2019</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Davey et al. 2012</t>
+          <t>Davey et al., 2012</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Davey et al. 2012</t>
+          <t>Davey et al., 2012</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Davey et al. 2012</t>
+          <t>Davey et al., 2012</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2018</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2018</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
@@ -949,12 +949,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>National</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>148940000</t>
+          <t>9834000</t>
         </is>
       </c>
       <c r="G13">
@@ -967,17 +967,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2018</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
@@ -989,17 +989,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>fDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9834000</t>
+          <t>148940000</t>
         </is>
       </c>
       <c r="G14">
@@ -1012,17 +1012,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>World</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2018</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2018</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
@@ -1084,12 +1084,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>148940000</t>
+          <t>9834000</t>
         </is>
       </c>
       <c r="G16">
@@ -1102,17 +1102,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2018</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
@@ -1124,12 +1124,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>fDiv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>National</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2018</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>fDiv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9834000</t>
+          <t>148940000</t>
         </is>
       </c>
       <c r="G18">
@@ -1192,17 +1192,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>World</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2018</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>148940000</t>
+          <t>9834000</t>
         </is>
       </c>
       <c r="G19">
@@ -1237,52 +1237,52 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2018</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>@pilotto_meta-analysis_2020</t>
+          <t>@jarzyna_taxonomic_2018</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Div</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10180000</t>
+          <t>9834000</t>
         </is>
       </c>
       <c r="G20">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1980-2016</t>
+          <t>1969-2013</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1292,42 +1292,42 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Pilotto et al. 2020</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>@pilotto_meta-analysis_2020</t>
+          <t>@jarzyna_taxonomic_2018</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>National</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10180000</t>
+          <t>9834000</t>
         </is>
       </c>
       <c r="G21">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1980-2016</t>
+          <t>1969-2013</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1337,14 +1337,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Pilotto et al. 2020</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>@pilotto_meta-analysis_2020</t>
+          <t>@jarzyna_taxonomic_2018</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1354,25 +1354,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10180000</t>
+          <t>148940000</t>
         </is>
       </c>
       <c r="G22">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1980-2016</t>
+          <t>1969-2013</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>World</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1382,19 +1382,19 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Pilotto et al. 2020</t>
+          <t>Jarzyna and Jetz, 2018</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>@ram_what_2017</t>
+          <t>@pilotto_meta-analysis_2020</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>Div</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1404,23 +1404,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>350000</t>
-        </is>
-      </c>
-      <c r="E23">
-        <v>1</v>
+          <t>10180000</t>
+        </is>
       </c>
       <c r="G23">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1998-2015</t>
+          <t>1980-2016</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1430,19 +1427,19 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Ram et al. 2017</t>
+          <t>Pilotto et al., 2020</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>@reif_changes_2013</t>
+          <t>@pilotto_meta-analysis_2020</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1452,45 +1449,42 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>79000</t>
-        </is>
-      </c>
-      <c r="E24">
-        <v>1</v>
+          <t>10180000</t>
+        </is>
       </c>
       <c r="G24">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1982-2004</t>
+          <t>1980-2016</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Czech Rep.</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Reif et al. 2013</t>
+          <t>Pilotto et al., 2020</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>@reif_changes_2013</t>
+          <t>@pilotto_meta-analysis_2020</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1500,23 +1494,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>79000</t>
-        </is>
-      </c>
-      <c r="E25">
-        <v>1</v>
+          <t>10180000</t>
+        </is>
       </c>
       <c r="G25">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1982-2004</t>
+          <t>1980-2016</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Czech Rep.</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1526,19 +1517,19 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Reif et al. 2013</t>
+          <t>Pilotto et al., 2020</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>@schipper_contrasting_2016</t>
+          <t>@ram_what_2017</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Div</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1548,23 +1539,23 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>24710000</t>
+          <t>350000</t>
         </is>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1971-2010</t>
+          <t>1998-2015</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1574,19 +1565,19 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Schipper et al. 2016</t>
+          <t>Ram et al., 2017</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>@schipper_contrasting_2016</t>
+          <t>@reif_changes_2013</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>fDiv</t>
+          <t>sBetaDiv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1596,45 +1587,45 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>24710000</t>
+          <t>79000</t>
         </is>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1971-2010</t>
+          <t>1982-2004</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Czech Rep.</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Schipper et al. 2016</t>
+          <t>Reif et al., 2013</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>@schipper_contrasting_2016</t>
+          <t>@reif_changes_2013</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>fEve</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1644,33 +1635,33 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24710000</t>
+          <t>79000</t>
         </is>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1971-2010</t>
+          <t>1982-2004</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Czech Rep.</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Schipper et al. 2016</t>
+          <t>Reif et al., 2013</t>
         </is>
       </c>
     </row>
@@ -1682,7 +1673,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>fR</t>
+          <t>Div</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1718,7 +1709,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Schipper et al. 2016</t>
+          <t>Schipper et al., 2016</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1721,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>fDiv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1761,24 +1752,24 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Schipper et al. 2016</t>
+          <t>Schipper et al., 2016</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>@sorte_changes_2005</t>
+          <t>@schipper_contrasting_2016</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Eve</t>
+          <t>fEve</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1788,18 +1779,18 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>9834000</t>
+          <t>24710000</t>
         </is>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1968-2003</t>
+          <t>1971-2010</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1809,24 +1800,24 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>La Sorte and Boecklen 2005</t>
+          <t>Schipper et al., 2016</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>@sorte_changes_2005</t>
+          <t>@schipper_contrasting_2016</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>fR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1836,18 +1827,18 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>9834000</t>
+          <t>24710000</t>
         </is>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1968-2003</t>
+          <t>1971-2010</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1862,14 +1853,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>La Sorte and Boecklen 2005</t>
+          <t>Schipper et al., 2016</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>@van_turnhout_scale-dependent_2007</t>
+          <t>@schipper_contrasting_2016</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1879,28 +1870,28 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>41543</t>
+          <t>24710000</t>
         </is>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1973-2000</t>
+          <t>1971-2010</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1910,19 +1901,19 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Van Turnhout et al. 2007</t>
+          <t>Schipper et al., 2016</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>@van_turnhout_scale-dependent_2007</t>
+          <t>@sorte_changes_2005</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>Eve</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1932,40 +1923,40 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>41543</t>
+          <t>9834000</t>
         </is>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1973-2000</t>
+          <t>1968-2003</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Van Turnhout et al. 2007</t>
+          <t>La Sorte and Boecklen, 2005</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>@wretenberg_changes_2010</t>
+          <t>@sorte_changes_2005</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1980,40 +1971,40 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>9834000</t>
         </is>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1994-2004</t>
+          <t>1968-2003</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Wretenberg et al. 2010</t>
+          <t>La Sorte and Boecklen, 2005</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>@keller_european_2020</t>
+          <t>@van_turnhout_scale-dependent_2007</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2023,28 +2014,28 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11075000</t>
+          <t>41543</t>
         </is>
       </c>
       <c r="E36">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1972-2017</t>
+          <t>1973-2000</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2054,14 +2045,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Keller et al. 2020</t>
+          <t>Van Turnhout et al., 2007</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>@monnet_asynchrony_2014</t>
+          <t>@van_turnhout_scale-dependent_2007</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2076,23 +2067,23 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>551695</t>
+          <t>41543</t>
         </is>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G37">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1989-2012</t>
+          <t>1973-2000</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2102,19 +2093,19 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Monet et al. 2014</t>
+          <t>Van Turnhout et al., 2007</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>@monnet_asynchrony_2014</t>
+          <t>@wretenberg_changes_2010</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>sBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2124,23 +2115,23 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>551695</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="G38">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1989-2012</t>
+          <t>1994-2004</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2150,19 +2141,19 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Monet et al. 2014</t>
+          <t>Wretenberg et al., 2010</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>@monnet_asynchrony_2014</t>
+          <t>@keller_european_2020</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>fsBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2172,33 +2163,33 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>551695</t>
+          <t>11075000</t>
         </is>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G39">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1989-2012</t>
+          <t>1972-2017</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Monet et al. 2014</t>
+          <t>Keller et al., 2020</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2201,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>gammaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2246,7 +2237,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Monet et al. 2014</t>
+          <t>Monet et al., 2014</t>
         </is>
       </c>
     </row>
@@ -2258,7 +2249,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>fgammaDiv</t>
+          <t>sBetaDiv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2294,19 +2285,19 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Monet et al. 2014</t>
+          <t>Monet et al., 2014</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>@spasov_population_2017</t>
+          <t>@monnet_asynchrony_2014</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>fsBetaDiv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2316,45 +2307,45 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>110994</t>
+          <t>551695</t>
         </is>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="G42">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2005-2010</t>
+          <t>1989-2012</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Spasov et al. 2017</t>
+          <t>Monet et al., 2014</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>@jarzyna_near_2017</t>
+          <t>@monnet_asynchrony_2014</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>gammaDiv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2364,23 +2355,23 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>9834000</t>
+          <t>551695</t>
         </is>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="G43">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1969-2010</t>
+          <t>1989-2012</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2390,19 +2381,19 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2017</t>
+          <t>Monet et al., 2014</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>@jarzyna_near_2017</t>
+          <t>@monnet_asynchrony_2014</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>fDiv</t>
+          <t>fgammaDiv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2412,45 +2403,45 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>9834000</t>
+          <t>551695</t>
         </is>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="G44">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1969-2010</t>
+          <t>1989-2012</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2017</t>
+          <t>Monet et al., 2014</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>@jarzyna_near_2017</t>
+          <t>@spasov_population_2017</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2460,40 +2451,40 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>9834000</t>
+          <t>110994</t>
         </is>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="G45">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1969-2010</t>
+          <t>2005-2010</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2017</t>
+          <t>Spasov et al., 2017</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>@tingley_cryptic_2013</t>
+          <t>@jarzyna_near_2017</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2508,15 +2499,18 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Regional</t>
-        </is>
+          <t>9834000</t>
+        </is>
+      </c>
+      <c r="E46">
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1911-2009</t>
+          <t>1969-2010</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2526,24 +2520,24 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Tingley and Beissinger 2013</t>
+          <t>Jarzyna and Jetz 2017</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>@la_sorte_disparities_2009</t>
+          <t>@jarzyna_near_2017</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>fDiv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2560,11 +2554,11 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1975-2001</t>
+          <t>1969-2010</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2579,19 +2573,19 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>La Sorte et al. 2009</t>
+          <t>Jarzyna and Jetz 2017</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>@la_sorte_geographical_2006</t>
+          <t>@jarzyna_near_2017</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>pDiv</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2608,16 +2602,16 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1968-2003</t>
+          <t>1969-2010</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>USA, Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2627,14 +2621,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>La Sorte 2006</t>
+          <t>Jarzyna and Jetz 2017</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>@ma_use_2012</t>
+          <t>@tingley_cryptic_2013</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2649,18 +2643,15 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>125384</t>
-        </is>
-      </c>
-      <c r="E49">
-        <v>20</v>
+          <t>Regional</t>
+        </is>
       </c>
       <c r="G49">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1980-2005</t>
+          <t>1911-2009</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2670,19 +2661,19 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Ma et al. 2012</t>
+          <t>Tingley and Beissinger 2013</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>@dornelas_assemblage_2014</t>
+          <t>@la_sorte_disparities_2009</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2697,42 +2688,45 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>148940000</t>
-        </is>
+          <t>9834000</t>
+        </is>
+      </c>
+      <c r="E50">
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1960-2000</t>
+          <t>1975-2001</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Dornelas et al. 2014</t>
+          <t>La Sorte et al., 2009</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>@dornelas_assemblage_2014</t>
+          <t>@la_sorte_geographical_2006</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2742,20 +2736,23 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>148940000</t>
-        </is>
+          <t>9834000</t>
+        </is>
+      </c>
+      <c r="E51">
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1960-2000</t>
+          <t>1968-2003</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>USA, Canada</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2765,19 +2762,19 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Dornelas et al. 2014</t>
+          <t>La Sorte, 2006</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>@garcia-navas_temporal_2020</t>
+          <t>@ma_use_2012</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2787,40 +2784,40 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>125384</t>
         </is>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G52">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1999-2018</t>
+          <t>1980-2005</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>García-Navas et al. 2020</t>
+          <t>Ma et al., 2012</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>@blowes_geography_2019</t>
+          <t>@dornelas_assemblage_2014</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2835,23 +2832,20 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E53">
-        <v>1</v>
+          <t>148940000</t>
+        </is>
       </c>
       <c r="G53">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1980-2019</t>
+          <t>1960-2000</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Polar realm</t>
+          <t>World</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2861,19 +2855,19 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Blowes et al. 2019</t>
+          <t>Dornelas et al., 2014</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>@blowes_geography_2019</t>
+          <t>@dornelas_assemblage_2014</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2883,45 +2877,42 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E54">
-        <v>1</v>
+          <t>148940000</t>
+        </is>
       </c>
       <c r="G54">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1980-2019</t>
+          <t>1960-2000</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Temperate realm</t>
+          <t>World</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Blowes et al. 2019</t>
+          <t>Dornelas et al., 2014</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>@blowes_geography_2019</t>
+          <t>@garcia-navas_temporal_2020</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>sBetaDiv</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2931,33 +2922,33 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>267</t>
         </is>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="G55">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1980-2019</t>
+          <t>1999-2018</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Polar realm</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Blowes et al. 2019</t>
+          <t>García-Navas et al., 2020</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2960,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2995,24 +2986,24 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Temperate realm</t>
+          <t>Polar realm</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Blowes et al. 2019</t>
+          <t>Blowes et al., 2019</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>@mcgill_fifteen_2015</t>
+          <t>@blowes_geography_2019</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3022,28 +3013,28 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>9834000</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1985-2005</t>
+          <t>1980-2019</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>USA, Canada</t>
+          <t>Temperate realm</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3053,19 +3044,19 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>McGill et al. 2015</t>
+          <t>Blowes et al., 2019</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>@mcgill_fifteen_2015</t>
+          <t>@blowes_geography_2019</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3075,45 +3066,45 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>9834000</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1985-2005</t>
+          <t>1980-2019</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>USA, Canada</t>
+          <t>Polar realm</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>McGill et al. 2015</t>
+          <t>Blowes et al., 2019</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>@petchey_low_2007</t>
+          <t>@blowes_geography_2019</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3123,81 +3114,225 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>229800</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E59">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1968-1991</t>
+          <t>1980-2019</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Temperate realm</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Petchey et al. 2007</t>
+          <t>Blowes et al., 2019</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>@mcgill_fifteen_2015</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>sR</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Regional</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9834000</t>
+        </is>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>20</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>1985-2005</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>USA, Canada</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>McGill et al., 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>@mcgill_fifteen_2015</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>sR</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9834000</t>
+        </is>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>20</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>1985-2005</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>USA, Canada</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>McGill et al., 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>@petchey_low_2007</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>sR</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>229800</t>
+        </is>
+      </c>
+      <c r="E62">
+        <v>20</v>
+      </c>
+      <c r="G62">
+        <v>24</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>1968-1991</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Petchey et al., 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>@petchey_low_2007</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>fDiv</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Local</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>229800</t>
         </is>
       </c>
-      <c r="E60">
+      <c r="E63">
         <v>20</v>
       </c>
-      <c r="G60">
+      <c r="G63">
         <v>24</v>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>1968-1991</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>Stable</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Petchey et al. 2007</t>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Petchey et al., 2007</t>
         </is>
       </c>
     </row>

--- a/data/literature.xlsx
+++ b/data/literature.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,12 +949,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>National</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9834000</t>
+          <t>148940000</t>
         </is>
       </c>
       <c r="G13">
@@ -967,12 +967,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>World</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -989,17 +989,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>fDiv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>148940000</t>
+          <t>9834000</t>
         </is>
       </c>
       <c r="G14">
@@ -1012,12 +1012,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1084,12 +1084,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9834000</t>
+          <t>148940000</t>
         </is>
       </c>
       <c r="G16">
@@ -1102,12 +1102,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>World</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1124,12 +1124,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>fDiv</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>National</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>fDiv</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>148940000</t>
+          <t>9834000</t>
         </is>
       </c>
       <c r="G18">
@@ -1192,12 +1192,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9834000</t>
+          <t>148940000</t>
         </is>
       </c>
       <c r="G19">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>World</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1254,35 +1254,35 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>@jarzyna_taxonomic_2018</t>
+          <t>@pilotto_meta-analysis_2020</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>Div</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9834000</t>
+          <t>10180000</t>
         </is>
       </c>
       <c r="G20">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1969-2013</t>
+          <t>1980-2016</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1292,42 +1292,42 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz, 2018</t>
+          <t>Pilotto et al., 2020</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>@jarzyna_taxonomic_2018</t>
+          <t>@pilotto_meta-analysis_2020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>National</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9834000</t>
+          <t>10180000</t>
         </is>
       </c>
       <c r="G21">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1969-2013</t>
+          <t>1980-2016</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1337,14 +1337,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz, 2018</t>
+          <t>Pilotto et al., 2020</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>@jarzyna_taxonomic_2018</t>
+          <t>@pilotto_meta-analysis_2020</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1354,25 +1354,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>148940000</t>
+          <t>10180000</t>
         </is>
       </c>
       <c r="G22">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1969-2013</t>
+          <t>1980-2016</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1382,19 +1382,19 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz, 2018</t>
+          <t>Pilotto et al., 2020</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>@pilotto_meta-analysis_2020</t>
+          <t>@ram_what_2017</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Div</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1404,20 +1404,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10180000</t>
-        </is>
+          <t>350000</t>
+        </is>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1980-2016</t>
+          <t>1998-2015</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1427,19 +1430,19 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Pilotto et al., 2020</t>
+          <t>Ram et al., 2017</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>@pilotto_meta-analysis_2020</t>
+          <t>@reif_changes_2013</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>sBetaDiv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1449,42 +1452,45 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10180000</t>
-        </is>
+          <t>79000</t>
+        </is>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1980-2016</t>
+          <t>1982-2004</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Czech Rep.</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Pilotto et al., 2020</t>
+          <t>Reif et al., 2013</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>@pilotto_meta-analysis_2020</t>
+          <t>@reif_changes_2013</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1494,20 +1500,23 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10180000</t>
-        </is>
+          <t>79000</t>
+        </is>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1980-2016</t>
+          <t>1982-2004</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Czech Rep.</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1517,19 +1526,19 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Pilotto et al., 2020</t>
+          <t>Reif et al., 2013</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>@ram_what_2017</t>
+          <t>@schipper_contrasting_2016</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>Div</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1539,23 +1548,23 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>350000</t>
+          <t>24710000</t>
         </is>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1998-2015</t>
+          <t>1971-2010</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1565,19 +1574,19 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Ram et al., 2017</t>
+          <t>Schipper et al., 2016</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>@reif_changes_2013</t>
+          <t>@schipper_contrasting_2016</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>sBetaDiv</t>
+          <t>fDiv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1587,45 +1596,45 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>79000</t>
+          <t>24710000</t>
         </is>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1982-2004</t>
+          <t>1971-2010</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Czech Rep.</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Reif et al., 2013</t>
+          <t>Schipper et al., 2016</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>@reif_changes_2013</t>
+          <t>@schipper_contrasting_2016</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>fEve</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1635,33 +1644,33 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>79000</t>
+          <t>24710000</t>
         </is>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1982-2004</t>
+          <t>1971-2010</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Czech Rep.</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Reif et al., 2013</t>
+          <t>Schipper et al., 2016</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1682,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Div</t>
+          <t>fR</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1721,7 +1730,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>fDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1752,7 +1761,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1764,12 +1773,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>@schipper_contrasting_2016</t>
+          <t>@sorte_changes_2005</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>fEve</t>
+          <t>Eve</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1779,18 +1788,18 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>24710000</t>
+          <t>9834000</t>
         </is>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1971-2010</t>
+          <t>1968-2003</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1800,24 +1809,24 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Schipper et al., 2016</t>
+          <t>La Sorte and Boecklen, 2005</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>@schipper_contrasting_2016</t>
+          <t>@sorte_changes_2005</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>fR</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1827,18 +1836,18 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>24710000</t>
+          <t>9834000</t>
         </is>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1971-2010</t>
+          <t>1968-2003</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1853,14 +1862,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Schipper et al., 2016</t>
+          <t>La Sorte and Boecklen, 2005</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>@schipper_contrasting_2016</t>
+          <t>@van_turnhout_scale-dependent_2007</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1870,28 +1879,28 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>24710000</t>
+          <t>41543</t>
         </is>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G33">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1971-2010</t>
+          <t>1973-2000</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1901,19 +1910,19 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Schipper et al., 2016</t>
+          <t>Van Turnhout et al., 2007</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>@sorte_changes_2005</t>
+          <t>@van_turnhout_scale-dependent_2007</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Eve</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1923,40 +1932,40 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>9834000</t>
+          <t>41543</t>
         </is>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G34">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1968-2003</t>
+          <t>1973-2000</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>La Sorte and Boecklen, 2005</t>
+          <t>Van Turnhout et al., 2007</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>@sorte_changes_2005</t>
+          <t>@wretenberg_changes_2010</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1971,40 +1980,40 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9834000</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1968-2003</t>
+          <t>1994-2004</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>La Sorte and Boecklen, 2005</t>
+          <t>Wretenberg et al., 2010</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>@van_turnhout_scale-dependent_2007</t>
+          <t>@keller_european_2020</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2014,28 +2023,28 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>41543</t>
+          <t>11075000</t>
         </is>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G36">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1973-2000</t>
+          <t>1972-2017</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2045,14 +2054,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Van Turnhout et al., 2007</t>
+          <t>Keller et al., 2020</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>@van_turnhout_scale-dependent_2007</t>
+          <t>@monnet_asynchrony_2014</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2067,23 +2076,23 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>41543</t>
+          <t>551695</t>
         </is>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1973-2000</t>
+          <t>1989-2012</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2093,19 +2102,19 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Van Turnhout et al., 2007</t>
+          <t>Monet et al., 2014</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>@wretenberg_changes_2010</t>
+          <t>@monnet_asynchrony_2014</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>sBetaDiv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2115,23 +2124,23 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>551695</t>
         </is>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="G38">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1994-2004</t>
+          <t>1989-2012</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2141,19 +2150,19 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Wretenberg et al., 2010</t>
+          <t>Monet et al., 2014</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>@keller_european_2020</t>
+          <t>@monnet_asynchrony_2014</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>fsBetaDiv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2163,33 +2172,33 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>11075000</t>
+          <t>551695</t>
         </is>
       </c>
       <c r="E39">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1972-2017</t>
+          <t>1989-2012</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Keller et al., 2020</t>
+          <t>Monet et al., 2014</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2210,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>gammaDiv</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2249,7 +2258,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>sBetaDiv</t>
+          <t>fgammaDiv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2292,12 +2301,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>@monnet_asynchrony_2014</t>
+          <t>@spasov_population_2017</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>fsBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2307,45 +2316,45 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>551695</t>
+          <t>110994</t>
         </is>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="G42">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1989-2012</t>
+          <t>2005-2010</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Monet et al., 2014</t>
+          <t>Spasov et al., 2017</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>@monnet_asynchrony_2014</t>
+          <t>@jarzyna_near_2017</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>gammaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2355,23 +2364,23 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>551695</t>
+          <t>9834000</t>
         </is>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="G43">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1989-2012</t>
+          <t>1969-2010</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2381,19 +2390,19 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Monet et al., 2014</t>
+          <t>Jarzyna and Jetz 2017</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>@monnet_asynchrony_2014</t>
+          <t>@jarzyna_near_2017</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>fgammaDiv</t>
+          <t>fDiv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2403,45 +2412,45 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>551695</t>
+          <t>9834000</t>
         </is>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="G44">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1989-2012</t>
+          <t>1969-2010</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Monet et al., 2014</t>
+          <t>Jarzyna and Jetz 2017</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>@spasov_population_2017</t>
+          <t>@jarzyna_near_2017</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>pDiv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2451,40 +2460,40 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>110994</t>
+          <t>9834000</t>
         </is>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="G45">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2005-2010</t>
+          <t>1969-2010</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Spasov et al., 2017</t>
+          <t>Jarzyna and Jetz 2017</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>@jarzyna_near_2017</t>
+          <t>@tingley_cryptic_2013</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2499,18 +2508,15 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>9834000</t>
-        </is>
-      </c>
-      <c r="E46">
-        <v>1</v>
+          <t>Regional</t>
+        </is>
       </c>
       <c r="G46">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1969-2010</t>
+          <t>1911-2009</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2520,24 +2526,24 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2017</t>
+          <t>Tingley and Beissinger 2013</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>@jarzyna_near_2017</t>
+          <t>@la_sorte_disparities_2009</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>fDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2554,11 +2560,11 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1969-2010</t>
+          <t>1975-2001</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2573,19 +2579,19 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2017</t>
+          <t>La Sorte et al., 2009</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>@jarzyna_near_2017</t>
+          <t>@la_sorte_geographical_2006</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2602,16 +2608,16 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1969-2010</t>
+          <t>1968-2003</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>USA, Canada</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2621,14 +2627,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Jarzyna and Jetz 2017</t>
+          <t>La Sorte, 2006</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>@tingley_cryptic_2013</t>
+          <t>@ma_use_2012</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2643,15 +2649,18 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Regional</t>
-        </is>
+          <t>125384</t>
+        </is>
+      </c>
+      <c r="E49">
+        <v>20</v>
       </c>
       <c r="G49">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1911-2009</t>
+          <t>1980-2005</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2661,19 +2670,19 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Tingley and Beissinger 2013</t>
+          <t>Ma et al., 2012</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>@la_sorte_disparities_2009</t>
+          <t>@dornelas_assemblage_2014</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2688,45 +2697,42 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>9834000</t>
-        </is>
-      </c>
-      <c r="E50">
-        <v>1</v>
+          <t>148940000</t>
+        </is>
       </c>
       <c r="G50">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1975-2001</t>
+          <t>1960-2000</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>World</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>La Sorte et al., 2009</t>
+          <t>Dornelas et al., 2014</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>@la_sorte_geographical_2006</t>
+          <t>@dornelas_assemblage_2014</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2736,23 +2742,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>9834000</t>
-        </is>
-      </c>
-      <c r="E51">
-        <v>1</v>
+          <t>148940000</t>
+        </is>
       </c>
       <c r="G51">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1968-2003</t>
+          <t>1960-2000</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>USA, Canada</t>
+          <t>World</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2762,19 +2765,19 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>La Sorte, 2006</t>
+          <t>Dornelas et al., 2014</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>@ma_use_2012</t>
+          <t>@garcia-navas_temporal_2020</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>sBetaDiv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2784,40 +2787,40 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>125384</t>
+          <t>267</t>
         </is>
       </c>
       <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="G52">
         <v>20</v>
       </c>
-      <c r="G52">
-        <v>26</v>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1980-2005</t>
+          <t>1999-2018</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Decrease</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Ma et al., 2012</t>
+          <t>García-Navas et al., 2020</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>@dornelas_assemblage_2014</t>
+          <t>@blowes_geography_2019</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2832,20 +2835,23 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>148940000</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53">
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1960-2000</t>
+          <t>1980-2019</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>Polar realm</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2855,19 +2861,19 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Dornelas et al., 2014</t>
+          <t>Blowes et al., 2019</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>@dornelas_assemblage_2014</t>
+          <t>@blowes_geography_2019</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2877,42 +2883,45 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>148940000</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54">
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1960-2000</t>
+          <t>1980-2019</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>Temperate realm</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Dornelas et al., 2014</t>
+          <t>Blowes et al., 2019</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>@garcia-navas_temporal_2020</t>
+          <t>@blowes_geography_2019</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sBetaDiv</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2922,33 +2931,33 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="G55">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1999-2018</t>
+          <t>1980-2019</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Polar realm</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Decrease</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>García-Navas et al., 2020</t>
+          <t>Blowes et al., 2019</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2969,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>tBetaDiv</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2986,12 +2995,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Polar realm</t>
+          <t>Temperate realm</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Increase</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3003,7 +3012,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>@blowes_geography_2019</t>
+          <t>@mcgill_fifteen_2015</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3013,28 +3022,28 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>Regional</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9834000</t>
         </is>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G57">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1980-2019</t>
+          <t>1985-2005</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Temperate realm</t>
+          <t>USA, Canada</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3044,19 +3053,19 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Blowes et al., 2019</t>
+          <t>McGill et al., 2015</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>@blowes_geography_2019</t>
+          <t>@mcgill_fifteen_2015</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3066,45 +3075,45 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9834000</t>
         </is>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G58">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1980-2019</t>
+          <t>1985-2005</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Polar realm</t>
+          <t>USA, Canada</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Blowes et al., 2019</t>
+          <t>McGill et al., 2015</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>@blowes_geography_2019</t>
+          <t>@petchey_low_2007</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>tBetaDiv</t>
+          <t>sR</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3114,71 +3123,71 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>229800</t>
         </is>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G59">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1980-2019</t>
+          <t>1968-1991</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Temperate realm</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Blowes et al., 2019</t>
+          <t>Petchey et al., 2007</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>@mcgill_fifteen_2015</t>
+          <t>@petchey_low_2007</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>sR</t>
+          <t>fDiv</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Regional</t>
+          <t>Local</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>9834000</t>
+          <t>229800</t>
         </is>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G60">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1985-2005</t>
+          <t>1968-1991</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>USA, Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3187,150 +3196,6 @@
         </is>
       </c>
       <c r="K60" t="inlineStr">
-        <is>
-          <t>McGill et al., 2015</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>@mcgill_fifteen_2015</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>sR</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Local</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>9834000</t>
-        </is>
-      </c>
-      <c r="E61">
-        <v>5</v>
-      </c>
-      <c r="G61">
-        <v>20</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>1985-2005</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>USA, Canada</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Stable</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>McGill et al., 2015</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>@petchey_low_2007</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>sR</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Local</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>229800</t>
-        </is>
-      </c>
-      <c r="E62">
-        <v>20</v>
-      </c>
-      <c r="G62">
-        <v>24</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>1968-1991</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Stable</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Petchey et al., 2007</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>@petchey_low_2007</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>fDiv</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Local</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>229800</t>
-        </is>
-      </c>
-      <c r="E63">
-        <v>20</v>
-      </c>
-      <c r="G63">
-        <v>24</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>1968-1991</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Stable</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>Petchey et al., 2007</t>
         </is>
